--- a/data/trans_camb/P05B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P05B_R-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-2.563290347351109</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-3.545106774092645</v>
+        <v>-3.545106774092646</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-2.879700002952386</v>
@@ -664,7 +664,7 @@
         <v>-2.182837051002207</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-2.4322687874716</v>
+        <v>-2.432268787471601</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.902990411433251</v>
+        <v>-2.985363911354567</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.116098529936738</v>
+        <v>-2.939581291839126</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.451457885903153</v>
+        <v>-2.342566738826645</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.265494530905433</v>
+        <v>-5.169324426231808</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.149007894455728</v>
+        <v>-4.013457927629725</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.026062435359993</v>
+        <v>-4.813479825309642</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.823304510937473</v>
+        <v>-3.948893025146896</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.181223876915377</v>
+        <v>-3.226589252210847</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.434648422663988</v>
+        <v>-3.553995182131581</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.4059563627524124</v>
+        <v>-0.3011944706794288</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.4264339748245352</v>
+        <v>-0.2349947855466126</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7098941712949053</v>
+        <v>0.6498623953340101</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.560150729192578</v>
+        <v>-2.514711902633525</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.9362407294543099</v>
+        <v>-1.020902914864829</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-2.201131654985843</v>
+        <v>-2.195988546138746</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-1.938103046358272</v>
+        <v>-2.041494124979016</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.130218646685943</v>
+        <v>-1.078604781890202</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.424336606718272</v>
+        <v>-1.456005185012751</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.4957903324652042</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.6856927729503469</v>
+        <v>-0.685692772950347</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.6787852532827786</v>
@@ -769,7 +769,7 @@
         <v>-0.5145249849013752</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.5733195066371658</v>
+        <v>-0.573319506637166</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7665868530281024</v>
+        <v>-0.7651409450641307</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8100227028679039</v>
+        <v>-0.7845779881657108</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6453843005662828</v>
+        <v>-0.6458224622591215</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.8632688559066954</v>
+        <v>-0.8582450463983867</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.684876018609222</v>
+        <v>-0.6824748899707415</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8160057598137787</v>
+        <v>-0.8089927202768247</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7963326813516349</v>
+        <v>-0.792567534172452</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6789551876363874</v>
+        <v>-0.6673058305974282</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7152610283534786</v>
+        <v>-0.7149355053440989</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1411694635974996</v>
+        <v>-0.09752139335626041</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1310864554231844</v>
+        <v>-0.05613724293339781</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3239920147342876</v>
+        <v>0.3673858079719809</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.5580875029883844</v>
+        <v>-0.5613431685886147</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1721004373791085</v>
+        <v>-0.2200785369018167</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4883409105991403</v>
+        <v>-0.4717068211322371</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.5284815074353961</v>
+        <v>-0.5349804097452143</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2978726952296416</v>
+        <v>-0.2638038883868581</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.3774599853798454</v>
+        <v>-0.3684371509786074</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-1.866077308669723</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-2.796573278073473</v>
+        <v>-2.796573278073472</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.308879671372414</v>
+        <v>-2.348433816661439</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.506840819533035</v>
+        <v>-2.448419461377242</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.325302555364728</v>
+        <v>-3.220316561609081</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.736652825640954</v>
+        <v>-3.676387679702305</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.489562550768985</v>
+        <v>-3.662221004228692</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.531370047555108</v>
+        <v>-4.553941200161002</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.572234593438999</v>
+        <v>-2.622932248852697</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.613798438089177</v>
+        <v>-2.699167041782039</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.528982930976558</v>
+        <v>-3.544323419059335</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.1787291857565768</v>
+        <v>-0.1821096080129175</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.4813363670341774</v>
+        <v>-0.4308987639487751</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.467114372270913</v>
+        <v>-1.368607506263614</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.280651880623106</v>
+        <v>-1.160773378857835</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-1.155785021808595</v>
+        <v>-1.125691422698501</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.313130327738022</v>
+        <v>-2.294537625167735</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.8936523850257722</v>
+        <v>-0.9653248801904879</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.050725740005285</v>
+        <v>-1.103618834000488</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-2.086366733178372</v>
+        <v>-2.054021237495049</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.5186577839721035</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.7772799617584902</v>
+        <v>-0.7772799617584901</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6551871240745826</v>
+        <v>-0.6658324760038573</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7074914314795626</v>
+        <v>-0.6934856470660162</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.897268666570783</v>
+        <v>-0.8991242709909124</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7132360839586852</v>
+        <v>-0.7087417885986641</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6834954187264284</v>
+        <v>-0.6860257963745053</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8507286192560425</v>
+        <v>-0.8551747038275017</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6182203668200417</v>
+        <v>-0.6364420867491228</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6387253660244552</v>
+        <v>-0.6503373926926315</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.8438917569728815</v>
+        <v>-0.8487691488380451</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.04133260494911364</v>
+        <v>-0.07063120438311793</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1906230697885992</v>
+        <v>-0.1706908771084259</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.6020344969467855</v>
+        <v>-0.5910620091327121</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.3194483203076156</v>
+        <v>-0.2921947365577198</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3037404096047903</v>
+        <v>-0.2968228099483146</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.6253143044992711</v>
+        <v>-0.6390555158061354</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2781820761186743</v>
+        <v>-0.3045161683386699</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.338252016504564</v>
+        <v>-0.3502886671236392</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.6694575677730576</v>
+        <v>-0.6759683758104675</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.821944361285862</v>
+        <v>-2.791153686968505</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.641875478657217</v>
+        <v>-3.593267127952573</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.37627408292411</v>
+        <v>-3.217061352682355</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.679265481393768</v>
+        <v>-5.62489218806679</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.110484370877626</v>
+        <v>-4.936086408115981</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.936878234612902</v>
+        <v>-4.723882573888445</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.395184916140801</v>
+        <v>-3.474425855151115</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.746242202309892</v>
+        <v>-3.703225696473952</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.503760869761593</v>
+        <v>-3.311089610889657</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.36667742309054</v>
+        <v>1.406726728075754</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07863400142762324</v>
+        <v>-0.007931052559348969</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4365280025622551</v>
+        <v>0.500494454122156</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.280896917074903</v>
+        <v>-1.467226923758123</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.613801720057948</v>
+        <v>-0.4632179523880439</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.7318046971609384</v>
+        <v>-0.5846711002316298</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.4973120495553507</v>
+        <v>-0.529555263487008</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.8923438573796066</v>
+        <v>-0.9419614958335576</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.5357658854848709</v>
+        <v>-0.5437144903048776</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6869322964913178</v>
+        <v>-0.7042990411601838</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8911254641477776</v>
+        <v>-0.8995769139123596</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7502609579859928</v>
+        <v>-0.7249290463217369</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.934676949937463</v>
+        <v>-0.9315908669968335</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8553000015345554</v>
+        <v>-0.8472364147098882</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8133066837098878</v>
+        <v>-0.8029672471660048</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7558018689522523</v>
+        <v>-0.754500340008317</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8113411439445333</v>
+        <v>-0.8096229494022941</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.749824018907515</v>
+        <v>-0.718922148987963</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7700014261454287</v>
+        <v>0.6946832253916515</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2464944448050755</v>
+        <v>0.1645377977706643</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3970457214367135</v>
+        <v>0.3988205179913674</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.3311106220740888</v>
+        <v>-0.3129335337853094</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1499433402336967</v>
+        <v>-0.03451410238212864</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.171671867222868</v>
+        <v>-0.1776991002754017</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1312250474055275</v>
+        <v>-0.1541760554977952</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2433840798892451</v>
+        <v>-0.2807724945704965</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1685691700776828</v>
+        <v>-0.2000136115377214</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.024205531605951</v>
+        <v>-2.070983342254715</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.320484174897109</v>
+        <v>-2.283122534660335</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.559692966590363</v>
+        <v>-2.634994667937637</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.86275068095293</v>
+        <v>-3.869358598240035</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.369454292976164</v>
+        <v>-3.366267041762872</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.200889956015372</v>
+        <v>-4.292723459027846</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.754545638468886</v>
+        <v>-2.776899112568175</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.642080983948822</v>
+        <v>-2.636466570780226</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.192895146880721</v>
+        <v>-3.192960732282298</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.4597329903866537</v>
+        <v>-0.5373996215580054</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.8307775668750146</v>
+        <v>-0.8606405360967956</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.161245075879026</v>
+        <v>-1.235758234263927</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-2.151633565354452</v>
+        <v>-2.218808983567722</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.525862382329992</v>
+        <v>-1.6292010127539</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-2.630891083128759</v>
+        <v>-2.650659722859179</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.631954184447868</v>
+        <v>-1.610126842922456</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.490554648095598</v>
+        <v>-1.488667332057183</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-2.112189390258501</v>
+        <v>-2.129122741004699</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6034300762052318</v>
+        <v>-0.5976222661404537</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6751588605558272</v>
+        <v>-0.6779388405379305</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7572345981311354</v>
+        <v>-0.7629568278194501</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7371444438842063</v>
+        <v>-0.7511759954418061</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6562845558229998</v>
+        <v>-0.6552595084249864</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.799827586202474</v>
+        <v>-0.800333867642009</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6566087102295068</v>
+        <v>-0.660422938548679</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6330536396760552</v>
+        <v>-0.6386784397474642</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.7566446004138976</v>
+        <v>-0.7588247397840125</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1720876626562572</v>
+        <v>-0.1949192446274008</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3098642538304376</v>
+        <v>-0.3434267431447138</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.4564918619277666</v>
+        <v>-0.4591810938879451</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.509534009888824</v>
+        <v>-0.5348867294368983</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.3771905560212401</v>
+        <v>-0.3937937260679357</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.634809571502583</v>
+        <v>-0.639144950342711</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.4586426645300715</v>
+        <v>-0.4548318513978973</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.4223772924297837</v>
+        <v>-0.4295782944144713</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.6067793496371104</v>
+        <v>-0.6085168098239276</v>
       </c>
     </row>
     <row r="28">
